--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2784.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2784.xlsx
@@ -354,7 +354,7 @@
         <v>2.43195021189077</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.367705627484339</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2784.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2784.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169209669308655</v>
+        <v>1.272421479225159</v>
       </c>
       <c r="B1">
-        <v>2.43195021189077</v>
+        <v>1.783588528633118</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.213485479354858</v>
       </c>
       <c r="D1">
-        <v>2.367705627484339</v>
+        <v>3.809664487838745</v>
       </c>
       <c r="E1">
-        <v>1.231825683446718</v>
+        <v>1.257516264915466</v>
       </c>
     </row>
   </sheetData>
